--- a/scimagojr/scimagojr_2009.xlsx
+++ b/scimagojr/scimagojr_2009.xlsx
@@ -146,12 +146,12 @@
     <t>Finland</t>
   </si>
   <si>
+    <t>Mexico</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
     <t>Hong Kong</t>
   </si>
   <si>
@@ -377,24 +377,24 @@
     <t>Libya</t>
   </si>
   <si>
+    <t>Panama</t>
+  </si>
+  <si>
     <t>Jamaica</t>
   </si>
   <si>
-    <t>Panama</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
     <t>Syrian Arab Republic</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
     <t>Côte d’Ivoire</t>
   </si>
   <si>
@@ -410,12 +410,12 @@
     <t>Malta</t>
   </si>
   <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
     <t>Benin</t>
   </si>
   <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
@@ -425,12 +425,12 @@
     <t>Madagascar</t>
   </si>
   <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
     <t>Yemen</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
     <t>Mali</t>
   </si>
   <si>
@@ -440,18 +440,18 @@
     <t>Mozambique</t>
   </si>
   <si>
+    <t>Fiji</t>
+  </si>
+  <si>
     <t>New Caledonia</t>
   </si>
   <si>
-    <t>Fiji</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
     <t>Guadeloupe</t>
   </si>
   <si>
@@ -464,27 +464,27 @@
     <t>Mauritius</t>
   </si>
   <si>
+    <t>Namibia</t>
+  </si>
+  <si>
     <t>Gabon</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Monaco</t>
   </si>
   <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
-    <t>Monaco</t>
-  </si>
-  <si>
     <t>Gambia</t>
   </si>
   <si>
+    <t>Niger</t>
+  </si>
+  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Niger</t>
-  </si>
-  <si>
     <t>Barbados</t>
   </si>
   <si>
@@ -503,16 +503,16 @@
     <t>Paraguay</t>
   </si>
   <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
     <t>French Polynesia</t>
   </si>
   <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>El Salvador</t>
@@ -578,27 +578,27 @@
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
     <t>Eritrea</t>
   </si>
   <si>
     <t>Bahamas</t>
   </si>
   <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
     <t>Bhutan</t>
   </si>
   <si>
+    <t>Belize</t>
+  </si>
+  <si>
     <t>North Korea</t>
   </si>
   <si>
-    <t>Belize</t>
-  </si>
-  <si>
     <t>Mauritania</t>
   </si>
   <si>
@@ -620,12 +620,12 @@
     <t>Djibouti</t>
   </si>
   <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>Cape Verde</t>
   </si>
   <si>
@@ -635,6 +635,9 @@
     <t>Equatorial Guinea</t>
   </si>
   <si>
+    <t>Suriname</t>
+  </si>
+  <si>
     <t>Burundi</t>
   </si>
   <si>
@@ -644,58 +647,70 @@
     <t>Liberia</t>
   </si>
   <si>
-    <t>Suriname</t>
-  </si>
-  <si>
     <t>American Samoa</t>
   </si>
   <si>
     <t>Dominica</t>
   </si>
   <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
     <t>Andorra</t>
   </si>
   <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
     <t>Palau</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Mayotte</t>
   </si>
   <si>
-    <t>Maldives</t>
-  </si>
-  <si>
     <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Marshall Islands</t>
   </si>
   <si>
     <t>San Marino</t>
   </si>
   <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
     <t>Aruba</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
   </si>
   <si>
     <t>Cocos (Keeling) Islands</t>
@@ -704,67 +719,52 @@
     <t>Sao Tome and Principe</t>
   </si>
   <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
     <t>British Indian Ocean Territory</t>
   </si>
   <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
   </si>
   <si>
     <t>Svalbard and Jan Mayen</t>
   </si>
   <si>
-    <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>Nauru</t>
+    <t>Niue</t>
   </si>
   <si>
     <t>Tuvalu</t>
   </si>
   <si>
-    <t>Niue</t>
+    <t>South Georgia and the South Sandwich Islands</t>
   </si>
   <si>
     <t>Kiribati</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
   </si>
 </sst>
 </file>
@@ -908,22 +908,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>583153</v>
+        <v>587814</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>503303</v>
+        <v>503969</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>20884036</v>
+        <v>23904147</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>8939934</v>
+        <v>9857816</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>35.81</v>
+        <v>40.67</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -937,22 +937,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>308745</v>
+        <v>306710</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>303903</v>
+        <v>303247</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>4559340</v>
+        <v>5133600</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>2431464</v>
+        <v>2706224</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>14.77</v>
+        <v>16.74</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -966,22 +966,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>170031</v>
+        <v>170896</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>138941</v>
+        <v>139126</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5906054</v>
+        <v>6798377</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1266571</v>
+        <v>1387744</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>34.74</v>
+        <v>39.78</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>145961</v>
+        <v>146084</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>132697</v>
+        <v>133047</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4606126</v>
+        <v>5210560</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1064450</v>
+        <v>1143750</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>31.56</v>
+        <v>35.67</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1024,22 +1024,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>129577</v>
+        <v>129305</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>123708</v>
+        <v>123815</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2775589</v>
+        <v>3134642</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>669797</v>
+        <v>718698</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>21.42</v>
+        <v>24.24</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1053,22 +1053,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>104663</v>
+        <v>104390</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>96758</v>
+        <v>96715</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3156768</v>
+        <v>3594990</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>624608</v>
+        <v>669897</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>30.16</v>
+        <v>34.44</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1082,22 +1082,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>89017</v>
+        <v>89253</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>78837</v>
+        <v>78978</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3183426</v>
+        <v>3667249</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>514559</v>
+        <v>563025</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>35.76</v>
+        <v>41.09</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1111,22 +1111,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>84718</v>
+        <v>84433</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>76488</v>
+        <v>76431</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2607027</v>
+        <v>2974213</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>555647</v>
+        <v>604084</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>30.77</v>
+        <v>35.23</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1140,22 +1140,22 @@
         <v>12</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>69602</v>
+        <v>69415</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>64798</v>
+        <v>64797</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1348385</v>
+        <v>1556581</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>445498</v>
+        <v>518095</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>19.37</v>
+        <v>22.42</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1169,22 +1169,22 @@
         <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>69194</v>
+        <v>68932</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>63520</v>
+        <v>63469</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2006264</v>
+        <v>2283797</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>410854</v>
+        <v>441862</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>28.99</v>
+        <v>33.13</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1198,22 +1198,22 @@
         <v>23</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>65021</v>
+        <v>65363</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>56589</v>
+        <v>56709</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2225817</v>
+        <v>2571079</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>436238</v>
+        <v>475671</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>34.23</v>
+        <v>39.34</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1227,22 +1227,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>55081</v>
+        <v>54770</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>53379</v>
+        <v>53349</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1264259</v>
+        <v>1433796</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>227969</v>
+        <v>241875</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>22.95</v>
+        <v>26.18</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1256,22 +1256,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>48819</v>
+        <v>48842</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>42780</v>
+        <v>42812</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2085485</v>
+        <v>2390637</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>287861</v>
+        <v>308450</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>42.72</v>
+        <v>48.95</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1285,22 +1285,22 @@
         <v>27</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>47439</v>
+        <v>47306</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>45160</v>
+        <v>45117</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>925766</v>
+        <v>1063143</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>320036</v>
+        <v>350927</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>19.51</v>
+        <v>22.47</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1314,22 +1314,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>39858</v>
+        <v>39747</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>38756</v>
+        <v>38712</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>472269</v>
+        <v>540826</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>157262</v>
+        <v>172778</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>11.85</v>
+        <v>13.61</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1343,22 +1343,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>38375</v>
+        <v>38217</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>36994</v>
+        <v>36956</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>815935</v>
+        <v>929094</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>135398</v>
+        <v>142145</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>21.26</v>
+        <v>24.31</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1372,22 +1372,22 @@
         <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>34049</v>
+        <v>34034</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>30412</v>
+        <v>30409</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1544477</v>
+        <v>1758464</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>175477</v>
+        <v>186750</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>45.36</v>
+        <v>51.67</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1401,22 +1401,22 @@
         <v>33</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>30905</v>
+        <v>30845</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>29228</v>
+        <v>29249</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>580085</v>
+        <v>679704</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>116236</v>
+        <v>129044</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>18.77</v>
+        <v>22.04</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1430,22 +1430,22 @@
         <v>29</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>30563</v>
+        <v>30511</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>29245</v>
+        <v>29226</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>504130</v>
+        <v>576071</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>115352</v>
+        <v>123714</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>16.49</v>
+        <v>18.88</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1459,22 +1459,22 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>29600</v>
+        <v>29613</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>27003</v>
+        <v>27013</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1173509</v>
+        <v>1338730</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>156379</v>
+        <v>167220</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>39.65</v>
+        <v>45.21</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1488,22 +1488,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>26197</v>
+        <v>26174</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>23697</v>
+        <v>23705</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1014426</v>
+        <v>1164063</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>117721</v>
+        <v>124932</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>38.72</v>
+        <v>44.47</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1517,22 +1517,22 @@
         <v>33</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>24681</v>
+        <v>24565</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>24038</v>
+        <v>24032</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>445508</v>
+        <v>508162</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>144589</v>
+        <v>156477</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>18.05</v>
+        <v>20.69</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1546,22 +1546,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>19131</v>
+        <v>19153</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>17180</v>
+        <v>17220</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>609008</v>
+        <v>703607</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>70079</v>
+        <v>74623</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>31.83</v>
+        <v>36.74</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1575,22 +1575,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>18051</v>
+        <v>17983</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>16277</v>
+        <v>16275</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>530701</v>
+        <v>630750</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>59956</v>
+        <v>65160</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>29.4</v>
+        <v>35.07</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1604,22 +1604,22 @@
         <v>33</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>17794</v>
+        <v>17807</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>15912</v>
+        <v>15920</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>595532</v>
+        <v>683784</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>70537</v>
+        <v>76387</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>33.47</v>
+        <v>38.4</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1633,22 +1633,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>17612</v>
+        <v>17606</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>15524</v>
+        <v>15538</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>807632</v>
+        <v>941105</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>90141</v>
+        <v>96807</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>45.86</v>
+        <v>53.45</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1662,22 +1662,22 @@
         <v>14</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>16011</v>
+        <v>16015</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>14748</v>
+        <v>14768</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>533904</v>
+        <v>616184</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>70621</v>
+        <v>75340</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>33.35</v>
+        <v>38.48</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1688,25 +1688,25 @@
         <v>43</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>15519</v>
+        <v>15536</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>13729</v>
+        <v>14604</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>579253</v>
+        <v>356305</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>69992</v>
+        <v>62519</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>37.33</v>
+        <v>22.93</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>747</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1717,25 +1717,25 @@
         <v>44</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>15508</v>
+        <v>15529</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>14580</v>
+        <v>13752</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>304226</v>
+        <v>686448</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>56703</v>
+        <v>76249</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>19.62</v>
+        <v>44.2</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>536</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1749,22 +1749,22 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>15268</v>
+        <v>15228</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>14000</v>
+        <v>13994</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>496779</v>
+        <v>577576</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>52208</v>
+        <v>55295</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>32.54</v>
+        <v>37.93</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1778,22 +1778,22 @@
         <v>29</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>15251</v>
+        <v>15210</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>14649</v>
+        <v>14632</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>306646</v>
+        <v>353136</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>61181</v>
+        <v>64398</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>20.11</v>
+        <v>23.22</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1807,22 +1807,22 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>14316</v>
+        <v>14292</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>13421</v>
+        <v>13422</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>436342</v>
+        <v>509222</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>66811</v>
+        <v>71994</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>30.48</v>
+        <v>35.63</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1836,22 +1836,22 @@
         <v>12</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>14229</v>
+        <v>14230</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>13006</v>
+        <v>13021</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>497876</v>
+        <v>571330</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>46663</v>
+        <v>48805</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>34.99</v>
+        <v>40.15</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1865,22 +1865,22 @@
         <v>50</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>11950</v>
+        <v>12029</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>10640</v>
+        <v>10692</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>302327</v>
+        <v>356734</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>61828</v>
+        <v>68424</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>25.3</v>
+        <v>29.66</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1894,22 +1894,22 @@
         <v>23</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>11766</v>
+        <v>11808</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>10268</v>
+        <v>10273</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>383050</v>
+        <v>444482</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>47105</v>
+        <v>51186</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>32.56</v>
+        <v>37.64</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1923,22 +1923,22 @@
         <v>12</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>11553</v>
+        <v>11548</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>11229</v>
+        <v>11238</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>197398</v>
+        <v>237970</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>46004</v>
+        <v>49922</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>17.09</v>
+        <v>20.61</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1952,22 +1952,22 @@
         <v>29</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>11520</v>
+        <v>11516</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>11278</v>
+        <v>11282</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>113489</v>
+        <v>136411</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>27749</v>
+        <v>29570</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>9.85</v>
+        <v>11.85</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1981,22 +1981,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>11199</v>
+        <v>11231</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>9734</v>
+        <v>9748</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>419929</v>
+        <v>488437</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>36114</v>
+        <v>38594</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>37.5</v>
+        <v>43.49</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -2010,22 +2010,22 @@
         <v>27</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>10215</v>
+        <v>10191</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>9615</v>
+        <v>9610</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>258502</v>
+        <v>295737</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>48268</v>
+        <v>52922</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>25.31</v>
+        <v>29.02</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2039,22 +2039,22 @@
         <v>29</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>9184</v>
+        <v>9157</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>8625</v>
+        <v>8616</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>208543</v>
+        <v>245651</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>27754</v>
+        <v>29830</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>22.71</v>
+        <v>26.83</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2068,22 +2068,22 @@
         <v>12</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>8809</v>
+        <v>8788</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>8285</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>211756</v>
+        <v>252835</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>29989</v>
+        <v>33040</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>24.04</v>
+        <v>28.77</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2097,22 +2097,22 @@
         <v>59</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>8563</v>
+        <v>8525</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>8316</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>157292</v>
+        <v>182047</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>28996</v>
+        <v>32999</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>18.37</v>
+        <v>21.35</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2126,22 +2126,22 @@
         <v>29</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>7257</v>
+        <v>7271</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>7128</v>
+        <v>7136</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>70590</v>
+        <v>88216</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>20023</v>
+        <v>21876</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>9.73</v>
+        <v>12.13</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2155,22 +2155,22 @@
         <v>27</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>6757</v>
+        <v>6735</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>6382</v>
+        <v>6381</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>169335</v>
+        <v>192902</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>31971</v>
+        <v>35136</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>25.06</v>
+        <v>28.64</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2184,22 +2184,22 @@
         <v>12</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>6602</v>
+        <v>6582</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>6302</v>
+        <v>6307</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>112303</v>
+        <v>131494</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>26926</v>
+        <v>30259</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>17.01</v>
+        <v>19.98</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2213,22 +2213,22 @@
         <v>29</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>5703</v>
+        <v>5678</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>5462</v>
+        <v>5453</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>83235</v>
+        <v>93175</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>13767</v>
+        <v>14833</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>14.59</v>
+        <v>16.41</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2242,22 +2242,22 @@
         <v>29</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>4990</v>
+        <v>5017</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>4723</v>
+        <v>4746</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>134655</v>
+        <v>156619</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>14888</v>
+        <v>15816</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>26.98</v>
+        <v>31.22</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2271,22 +2271,22 @@
         <v>50</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>4963</v>
+        <v>4972</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>4755</v>
+        <v>4763</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>59954</v>
+        <v>70895</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>13147</v>
+        <v>15491</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>12.08</v>
+        <v>14.26</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2300,22 +2300,22 @@
         <v>29</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>4897</v>
+        <v>4876</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>4709</v>
+        <v>4693</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>75632</v>
+        <v>86158</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>15564</v>
+        <v>16541</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>15.44</v>
+        <v>17.67</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2329,22 +2329,22 @@
         <v>29</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>4663</v>
+        <v>4655</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>4498</v>
+        <v>4492</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>75911</v>
+        <v>94539</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>13122</v>
+        <v>13886</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>16.28</v>
+        <v>20.31</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2358,22 +2358,22 @@
         <v>33</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>4581</v>
+        <v>4567</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>4360</v>
+        <v>4365</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>87321</v>
+        <v>100810</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>12682</v>
+        <v>14193</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>19.06</v>
+        <v>22.07</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2387,22 +2387,22 @@
         <v>50</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>4421</v>
+        <v>4410</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>4272</v>
+        <v>4269</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>71326</v>
+        <v>82665</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>13573</v>
+        <v>14938</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>16.13</v>
+        <v>18.74</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2416,22 +2416,22 @@
         <v>27</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>4278</v>
+        <v>4336</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>4095</v>
+        <v>4147</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>81599</v>
+        <v>92081</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>11585</v>
+        <v>12905</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>19.07</v>
+        <v>21.24</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2445,22 +2445,22 @@
         <v>29</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>4079</v>
+        <v>4081</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>3933</v>
+        <v>3930</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>61397</v>
+        <v>78785</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>7667</v>
+        <v>8222</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>15.05</v>
+        <v>19.31</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2474,22 +2474,22 @@
         <v>50</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>3178</v>
+        <v>3164</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>3138</v>
+        <v>3131</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>46880</v>
+        <v>53368</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>8977</v>
+        <v>9930</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>14.75</v>
+        <v>16.87</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2503,22 +2503,22 @@
         <v>29</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>2907</v>
+        <v>2915</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>2819</v>
+        <v>2823</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>37818</v>
+        <v>43099</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>8077</v>
+        <v>8486</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>13.01</v>
+        <v>14.79</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2532,22 +2532,22 @@
         <v>27</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>2439</v>
+        <v>2450</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>2316</v>
+        <v>2329</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>34092</v>
+        <v>38910</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3214</v>
+        <v>3394</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>13.98</v>
+        <v>15.88</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2561,22 +2561,22 @@
         <v>50</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>2278</v>
+        <v>2271</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>31965</v>
+        <v>37375</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>5518</v>
+        <v>6542</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>14.03</v>
+        <v>16.46</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2590,22 +2590,22 @@
         <v>12</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>2201</v>
+        <v>2223</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>2011</v>
+        <v>2041</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>54700</v>
+        <v>63251</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>7926</v>
+        <v>9360</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>24.85</v>
+        <v>28.45</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2619,22 +2619,22 @@
         <v>27</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>23593</v>
+        <v>26905</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>3587</v>
+        <v>3774</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>10.8</v>
+        <v>12.32</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2648,22 +2648,22 @@
         <v>33</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>2079</v>
+        <v>2087</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>36227</v>
+        <v>42206</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>3751</v>
+        <v>4330</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>17.43</v>
+        <v>20.22</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2677,22 +2677,22 @@
         <v>33</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>42060</v>
+        <v>49363</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>3508</v>
+        <v>3892</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>20.35</v>
+        <v>23.84</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2706,22 +2706,22 @@
         <v>12</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1913</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>36621</v>
+        <v>42909</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>6335</v>
+        <v>7257</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>17.92</v>
+        <v>21.01</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2735,22 +2735,22 @@
         <v>29</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1875</v>
+        <v>1880</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>53712</v>
+        <v>61053</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>7923</v>
+        <v>8414</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>28.65</v>
+        <v>32.48</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2764,22 +2764,22 @@
         <v>12</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1669</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>37417</v>
+        <v>43107</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>5767</v>
+        <v>6383</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>21.16</v>
+        <v>24.33</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2793,22 +2793,22 @@
         <v>29</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>17071</v>
+        <v>19251</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>2760</v>
+        <v>2943</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>10.21</v>
+        <v>11.53</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2822,22 +2822,22 @@
         <v>50</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>51976</v>
+        <v>58958</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>7165</v>
+        <v>7877</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>32.65</v>
+        <v>37.08</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2851,22 +2851,22 @@
         <v>33</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>32352</v>
+        <v>36270</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>2620</v>
+        <v>2815</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>23.51</v>
+        <v>26.34</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2880,22 +2880,22 @@
         <v>14</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>31856</v>
+        <v>36850</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>3278</v>
+        <v>3522</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>23.51</v>
+        <v>27.1</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2909,22 +2909,22 @@
         <v>12</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>43698</v>
+        <v>61519</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>3743</v>
+        <v>4153</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>34.43</v>
+        <v>48.29</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2938,22 +2938,22 @@
         <v>33</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>19938</v>
+        <v>23118</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1805</v>
+        <v>1961</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>16.33</v>
+        <v>19.01</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2967,22 +2967,22 @@
         <v>14</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>55720</v>
+        <v>64687</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>4145</v>
+        <v>4468</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>50.65</v>
+        <v>58.43</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2996,22 +2996,22 @@
         <v>27</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>31018</v>
+        <v>44934</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>3599</v>
+        <v>4163</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>29.48</v>
+        <v>42.47</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3025,22 +3025,22 @@
         <v>29</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>13672</v>
+        <v>15803</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1843</v>
+        <v>1980</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>14.11</v>
+        <v>16.22</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3054,22 +3054,22 @@
         <v>27</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>33930</v>
+        <v>40520</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1435</v>
+        <v>1515</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>36.37</v>
+        <v>43.38</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3083,22 +3083,22 @@
         <v>27</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>25937</v>
+        <v>30130</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>3285</v>
+        <v>3599</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>28.79</v>
+        <v>33.26</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3115,19 +3115,19 @@
         <v>898</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>18154</v>
+        <v>21617</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1514</v>
+        <v>1763</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>20.22</v>
+        <v>24.07</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3141,22 +3141,22 @@
         <v>33</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>809</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>14799</v>
+        <v>17625</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1395</v>
+        <v>1526</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>16.59</v>
+        <v>19.78</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3170,22 +3170,22 @@
         <v>14</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>28993</v>
+        <v>33231</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1930</v>
+        <v>2007</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>33.02</v>
+        <v>37.34</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3199,22 +3199,22 @@
         <v>29</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>816</v>
+        <v>872</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>743</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>14322</v>
+        <v>16685</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1422</v>
+        <v>1562</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>17.55</v>
+        <v>19.13</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3228,22 +3228,22 @@
         <v>50</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>31416</v>
+        <v>35855</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>3836</v>
+        <v>4272</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>39.27</v>
+        <v>44.65</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3257,22 +3257,22 @@
         <v>29</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>4672</v>
+        <v>5244</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1195</v>
+        <v>1298</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>5.85</v>
+        <v>6.61</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3286,22 +3286,22 @@
         <v>50</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>26058</v>
+        <v>29717</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>4075</v>
+        <v>4530</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>33.75</v>
+        <v>38.34</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3315,22 +3315,22 @@
         <v>50</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>726</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>22635</v>
+        <v>26884</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>5573</v>
+        <v>6722</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>29.32</v>
+        <v>34.78</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3344,22 +3344,22 @@
         <v>50</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>691</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>17742</v>
+        <v>20492</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>2893</v>
+        <v>3292</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>23.16</v>
+        <v>26.79</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3373,22 +3373,22 @@
         <v>50</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>677</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>18080</v>
+        <v>21232</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>2352</v>
+        <v>2774</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>24.27</v>
+        <v>28.65</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3402,22 +3402,22 @@
         <v>29</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>11502</v>
+        <v>12584</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1957</v>
+        <v>2076</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>15.93</v>
+        <v>17.6</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3431,22 +3431,22 @@
         <v>12</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>12638</v>
+        <v>14617</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1588</v>
+        <v>1805</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>18.03</v>
+        <v>20.94</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3460,22 +3460,22 @@
         <v>29</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>5845</v>
+        <v>6518</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>629</v>
+        <v>686</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>9.08</v>
+        <v>10.22</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3489,22 +3489,22 @@
         <v>33</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>14388</v>
+        <v>16343</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1060</v>
+        <v>1116</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>22.52</v>
+        <v>25.62</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3521,19 +3521,19 @@
         <v>627</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>7922</v>
+        <v>9077</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>675</v>
+        <v>713</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>12.63</v>
+        <v>14.48</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3547,22 +3547,22 @@
         <v>33</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>7025</v>
+        <v>8658</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>1093</v>
+        <v>1387</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>11.48</v>
+        <v>14.08</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3576,22 +3576,22 @@
         <v>27</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>24327</v>
+        <v>28074</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1747</v>
+        <v>1915</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>42.53</v>
+        <v>48.82</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3605,22 +3605,22 @@
         <v>12</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>5962</v>
+        <v>7033</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1124</v>
+        <v>1348</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>11.08</v>
+        <v>13.05</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3634,22 +3634,22 @@
         <v>27</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>16235</v>
+        <v>18643</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1944</v>
+        <v>2176</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>31.96</v>
+        <v>36.84</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3663,22 +3663,22 @@
         <v>12</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>10292</v>
+        <v>12031</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>958</v>
+        <v>1011</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>21.53</v>
+        <v>25.01</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3692,22 +3692,22 @@
         <v>12</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>425</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>4797</v>
+        <v>5507</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>929</v>
+        <v>1082</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>10.59</v>
+        <v>12.21</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3721,22 +3721,22 @@
         <v>50</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>417</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>9550</v>
+        <v>11134</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>736</v>
+        <v>796</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>21.61</v>
+        <v>25.25</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3750,22 +3750,22 @@
         <v>50</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>384</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>9751</v>
+        <v>11137</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>837</v>
+        <v>895</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>23.33</v>
+        <v>26.84</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3785,16 +3785,16 @@
         <v>363</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>7748</v>
+        <v>9030</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>19.66</v>
+        <v>22.92</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3808,22 +3808,22 @@
         <v>29</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>6930</v>
+        <v>7847</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>893</v>
+        <v>957</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>18.93</v>
+        <v>21.38</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3837,22 +3837,22 @@
         <v>50</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>3184</v>
+        <v>3666</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>8.72</v>
+        <v>10.1</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3866,22 +3866,22 @@
         <v>27</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>4946</v>
+        <v>20216</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>471</v>
+        <v>1578</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>14.25</v>
+        <v>57.27</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>121</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3895,22 +3895,22 @@
         <v>27</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>17466</v>
+        <v>5812</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>1454</v>
+        <v>503</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>50.77</v>
+        <v>16.56</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>242</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3924,22 +3924,22 @@
         <v>50</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>5027</v>
+        <v>6045</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>593</v>
+        <v>729</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>15.05</v>
+        <v>17.94</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3950,25 +3950,25 @@
         <v>123</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>7792</v>
+        <v>11878</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>523</v>
+        <v>1217</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>23.47</v>
+        <v>36.21</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>130</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3982,22 +3982,22 @@
         <v>33</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>297</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>6249</v>
+        <v>7199</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>18.82</v>
+        <v>22.02</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -4008,25 +4008,25 @@
         <v>125</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>10154</v>
+        <v>8889</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>1117</v>
+        <v>549</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>31.44</v>
+        <v>27.18</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4040,22 +4040,22 @@
         <v>50</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>6640</v>
+        <v>7674</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>509</v>
+        <v>580</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>20.75</v>
+        <v>24.13</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4069,22 +4069,22 @@
         <v>33</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>4147</v>
+        <v>4751</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>13.17</v>
+        <v>15.13</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4098,22 +4098,22 @@
         <v>50</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>299</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>8773</v>
+        <v>9888</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>1255</v>
+        <v>1366</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>28.39</v>
+        <v>32.31</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4127,22 +4127,22 @@
         <v>50</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>280</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>10460</v>
+        <v>11591</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>1286</v>
+        <v>1387</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>34.64</v>
+        <v>38.25</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4156,22 +4156,22 @@
         <v>14</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>8075</v>
+        <v>9535</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>27.56</v>
+        <v>31.78</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4182,25 +4182,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>265</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>5921</v>
+        <v>5709</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>962</v>
+        <v>665</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>22.34</v>
+        <v>21.54</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4211,25 +4211,25 @@
         <v>132</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>264</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>4972</v>
+        <v>6921</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>572</v>
+        <v>1058</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>18.83</v>
+        <v>26.22</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4243,22 +4243,22 @@
         <v>27</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>9524</v>
+        <v>11016</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>626</v>
+        <v>669</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>36.77</v>
+        <v>42.86</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4272,22 +4272,22 @@
         <v>50</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>8351</v>
+        <v>9163</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>739</v>
+        <v>790</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>36.63</v>
+        <v>40.72</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4307,16 +4307,16 @@
         <v>198</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>5121</v>
+        <v>5812</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>651</v>
+        <v>710</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>24.86</v>
+        <v>28.21</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4327,25 +4327,25 @@
         <v>136</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>189</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>3641</v>
+        <v>13233</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>232</v>
+        <v>783</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>19.26</v>
+        <v>70.02</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4356,25 +4356,25 @@
         <v>137</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>188</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>11489</v>
+        <v>4212</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>746</v>
+        <v>247</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>61.11</v>
+        <v>22.4</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4388,22 +4388,22 @@
         <v>50</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>171</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>7384</v>
+        <v>8344</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>40.8</v>
+        <v>45.85</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4423,16 +4423,16 @@
         <v>173</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>7038</v>
+        <v>8253</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>518</v>
+        <v>569</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>38.88</v>
+        <v>45.6</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4452,16 +4452,16 @@
         <v>152</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>5510</v>
+        <v>6168</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>714</v>
+        <v>770</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>33.6</v>
+        <v>37.61</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4475,22 +4475,22 @@
         <v>23</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>7064</v>
+        <v>6966</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>497</v>
+        <v>367</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>44.43</v>
+        <v>43.27</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4504,22 +4504,22 @@
         <v>23</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>5882</v>
+        <v>8187</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>342</v>
+        <v>551</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>37.23</v>
+        <v>51.49</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4530,25 +4530,25 @@
         <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>2100</v>
+        <v>3966</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>364</v>
+        <v>253</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>13.64</v>
+        <v>25.42</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4559,25 +4559,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>3356</v>
+        <v>2345</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>21.93</v>
+        <v>15.53</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4597,16 +4597,16 @@
         <v>135</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>2610</v>
+        <v>2997</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>18.25</v>
+        <v>20.96</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4620,22 +4620,22 @@
         <v>29</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>137</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>1935</v>
+        <v>2312</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>13.53</v>
+        <v>16.28</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4649,22 +4649,22 @@
         <v>12</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>130</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>2049</v>
+        <v>2339</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>14.74</v>
+        <v>17.07</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4684,16 +4684,16 @@
         <v>130</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>2224</v>
+        <v>2623</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>16.35</v>
+        <v>19.29</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4707,22 +4707,22 @@
         <v>50</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>4351</v>
+        <v>5434</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>34.81</v>
+        <v>42.45</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4736,22 +4736,22 @@
         <v>50</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>4792</v>
+        <v>5019</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>307</v>
+        <v>388</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>38.34</v>
+        <v>39.83</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4762,25 +4762,25 @@
         <v>151</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>123</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>1859</v>
+        <v>6170</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>139</v>
+        <v>390</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>15.11</v>
+        <v>50.16</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>105</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4791,25 +4791,25 @@
         <v>152</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>5347</v>
+        <v>2186</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>43.83</v>
+        <v>18.07</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4823,22 +4823,22 @@
         <v>50</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>111</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>5438</v>
+        <v>6063</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>45.7</v>
+        <v>50.53</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4849,25 +4849,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>4166</v>
+        <v>3707</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>35.61</v>
+        <v>31.15</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4878,25 +4878,25 @@
         <v>155</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>3163</v>
+        <v>4687</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>27.99</v>
+        <v>39.72</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4910,22 +4910,22 @@
         <v>27</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>84</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>3104</v>
+        <v>3636</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>29.56</v>
+        <v>34.3</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4939,22 +4939,22 @@
         <v>12</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>97</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>2765</v>
+        <v>3100</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>26.59</v>
+        <v>30.1</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4974,16 +4974,16 @@
         <v>94</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>3600</v>
+        <v>4193</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>35.29</v>
+        <v>41.11</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4997,22 +4997,22 @@
         <v>50</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>2990</v>
+        <v>3345</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>30.2</v>
+        <v>33.45</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5032,16 +5032,16 @@
         <v>91</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>1631</v>
+        <v>1960</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>17.35</v>
+        <v>20.85</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5058,19 +5058,19 @@
         <v>90</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>2734</v>
+        <v>3204</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>30.38</v>
+        <v>35.6</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5081,25 +5081,25 @@
         <v>162</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>77</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>3966</v>
+        <v>2455</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>48.96</v>
+        <v>29.58</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5119,16 +5119,16 @@
         <v>67</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>2828</v>
+        <v>3349</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>34.91</v>
+        <v>41.35</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5139,25 +5139,25 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1984</v>
+        <v>4656</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>24.8</v>
+        <v>58.2</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5171,22 +5171,22 @@
         <v>50</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1875</v>
+        <v>2235</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>24.67</v>
+        <v>28.65</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5200,22 +5200,22 @@
         <v>27</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>2087</v>
+        <v>2605</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>28.99</v>
+        <v>35.68</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5235,16 +5235,16 @@
         <v>65</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1632</v>
+        <v>1948</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>24.73</v>
+        <v>29.52</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5258,22 +5258,22 @@
         <v>27</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>46</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1095</v>
+        <v>1220</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>17.38</v>
+        <v>20.33</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5293,16 +5293,16 @@
         <v>52</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>794</v>
+        <v>952</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>13.69</v>
+        <v>16.41</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5316,22 +5316,22 @@
         <v>27</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1365</v>
+        <v>1514</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>23.53</v>
+        <v>26.56</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5351,16 +5351,16 @@
         <v>53</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>3725</v>
+        <v>4250</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>68.98</v>
+        <v>78.7</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5380,16 +5380,16 @@
         <v>49</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>3826</v>
+        <v>4846</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>72.19</v>
+        <v>91.43</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5409,16 +5409,16 @@
         <v>47</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>12.5</v>
+        <v>14.19</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5438,16 +5438,16 @@
         <v>47</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>1645</v>
+        <v>1852</v>
       </c>
       <c r="G158" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>34.27</v>
+        <v>38.58</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5467,16 +5467,16 @@
         <v>41</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1145</v>
+        <v>1347</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>25.44</v>
+        <v>29.93</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5490,22 +5490,22 @@
         <v>27</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>578</v>
+        <v>697</v>
       </c>
       <c r="G160" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>12.84</v>
+        <v>15.84</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5522,19 +5522,19 @@
         <v>44</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1357</v>
+        <v>1475</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>30.84</v>
+        <v>33.52</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5548,22 +5548,22 @@
         <v>27</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1832</v>
+        <v>2159</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>43.62</v>
+        <v>50.21</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5583,16 +5583,16 @@
         <v>38</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>1333</v>
+        <v>1586</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>33.33</v>
+        <v>39.65</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5612,16 +5612,16 @@
         <v>35</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1057</v>
+        <v>1200</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>27.1</v>
+        <v>30.77</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5635,22 +5635,22 @@
         <v>27</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>35</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>3504</v>
+        <v>4019</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>89.85</v>
+        <v>105.76</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5670,16 +5670,16 @@
         <v>30</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>714</v>
+        <v>847</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>19.3</v>
+        <v>22.89</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5699,16 +5699,16 @@
         <v>32</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>766</v>
+        <v>867</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>21.28</v>
+        <v>24.08</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5728,16 +5728,16 @@
         <v>34</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>2046</v>
+        <v>2387</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>58.46</v>
+        <v>68.2</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5757,16 +5757,16 @@
         <v>30</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>33.94</v>
+        <v>38.28</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5780,22 +5780,22 @@
         <v>50</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>1003</v>
+        <v>1142</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>32.35</v>
+        <v>38.07</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5809,22 +5809,22 @@
         <v>50</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>516</v>
+        <v>823</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>17.79</v>
+        <v>27.43</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5835,25 +5835,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>29</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>1058</v>
+        <v>2133</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>36.48</v>
+        <v>73.55</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5870,19 +5870,19 @@
         <v>29</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>1810</v>
+        <v>603</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>62.41</v>
+        <v>20.79</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5893,25 +5893,25 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>29</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>728</v>
+        <v>1208</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>25.1</v>
+        <v>41.66</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5925,22 +5925,22 @@
         <v>12</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>760</v>
+        <v>914</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>28.15</v>
+        <v>32.64</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5951,25 +5951,25 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>169</v>
+        <v>792</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>6.5</v>
+        <v>29.33</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5980,25 +5980,25 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>26</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>685</v>
+        <v>195</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>26.35</v>
+        <v>7.5</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6018,16 +6018,16 @@
         <v>24</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>485</v>
+        <v>564</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>19.4</v>
+        <v>22.56</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6047,16 +6047,16 @@
         <v>23</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>428</v>
+        <v>505</v>
       </c>
       <c r="G179" s="0" t="n">
         <v>15</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>17.12</v>
+        <v>20.2</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6076,16 +6076,16 @@
         <v>22</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>1168</v>
+        <v>1430</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>50.78</v>
+        <v>62.17</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6105,16 +6105,16 @@
         <v>21</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>1076</v>
+        <v>1186</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>46.78</v>
+        <v>51.57</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6134,16 +6134,16 @@
         <v>21</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>23.41</v>
+        <v>26.41</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6157,22 +6157,22 @@
         <v>14</v>
       </c>
       <c r="D183" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E183" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E183" s="0" t="n">
-        <v>18</v>
-      </c>
       <c r="F183" s="0" t="n">
-        <v>689</v>
+        <v>802</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>36.26</v>
+        <v>40.1</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6192,16 +6192,16 @@
         <v>16</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>16.06</v>
+        <v>17.41</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6218,19 +6218,19 @@
         <v>16</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>24.19</v>
+        <v>26.75</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6247,19 +6247,19 @@
         <v>16</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>22.63</v>
+        <v>27.5</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6279,16 +6279,16 @@
         <v>15</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>15.63</v>
+        <v>17.94</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6308,16 +6308,16 @@
         <v>15</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="G188" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>25.93</v>
+        <v>28.87</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6337,16 +6337,16 @@
         <v>14</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="G189" s="0" t="n">
         <v>46</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>33</v>
+        <v>35.86</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6357,7 +6357,7 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>14</v>
@@ -6366,16 +6366,16 @@
         <v>13</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>24</v>
+        <v>10.14</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6386,25 +6386,25 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>2395</v>
+        <v>370</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>171.07</v>
+        <v>26.43</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6415,25 +6415,25 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>2754</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>196.71</v>
+      </c>
+      <c r="I192" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="D192" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E192" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F192" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G192" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H192" s="0" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="I192" s="0" t="n">
-        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6444,25 +6444,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>9.31</v>
+        <v>15.69</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6482,16 +6482,16 @@
         <v>12</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>21.23</v>
+        <v>23.15</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6511,16 +6511,16 @@
         <v>9</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G195" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>7</v>
+        <v>8.08</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6534,22 +6534,22 @@
         <v>23</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>1421</v>
+        <v>308</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>129.18</v>
+        <v>25.67</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6566,19 +6566,19 @@
         <v>11</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>273</v>
+        <v>1756</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>24.82</v>
+        <v>159.64</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6598,16 +6598,16 @@
         <v>8</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>8.5</v>
+        <v>10.1</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6621,22 +6621,22 @@
         <v>14</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>32.13</v>
+        <v>30.56</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6647,7 +6647,7 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>8</v>
@@ -6656,16 +6656,16 @@
         <v>8</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>18.88</v>
+        <v>7.88</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6676,7 +6676,7 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>8</v>
@@ -6685,16 +6685,16 @@
         <v>8</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>5.88</v>
+        <v>21</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6705,7 +6705,7 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>7</v>
@@ -6714,16 +6714,16 @@
         <v>7</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>194</v>
+        <v>759</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>27.71</v>
+        <v>108.43</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6734,7 +6734,7 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>7</v>
@@ -6743,16 +6743,16 @@
         <v>7</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>646</v>
+        <v>212</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>92.29</v>
+        <v>30.29</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6772,16 +6772,16 @@
         <v>7</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>30.29</v>
+        <v>38.57</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6801,16 +6801,16 @@
         <v>4</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>17.5</v>
+        <v>19.83</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6830,16 +6830,16 @@
         <v>4</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>17.33</v>
+        <v>20.5</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6859,16 +6859,16 @@
         <v>5</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>21.5</v>
+        <v>24.33</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6888,16 +6888,16 @@
         <v>5</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>49.2</v>
+        <v>56.2</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6908,25 +6908,25 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>5.8</v>
+        <v>24</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6937,25 +6937,25 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>20</v>
+        <v>7.2</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6966,25 +6966,25 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>1.25</v>
+        <v>10.75</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -7004,16 +7004,16 @@
         <v>4</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>65.75</v>
+        <v>11.75</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7033,16 +7033,16 @@
         <v>3</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7053,25 +7053,25 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>34</v>
+        <v>732</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>8.5</v>
+        <v>183</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7088,19 +7088,19 @@
         <v>4</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>10.25</v>
+        <v>53.5</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7111,7 +7111,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>4</v>
@@ -7120,16 +7120,16 @@
         <v>4</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>48</v>
+        <v>1.25</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7140,25 +7140,25 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>546</v>
+        <v>314</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>136.5</v>
+        <v>78.5</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7178,16 +7178,16 @@
         <v>4</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7198,7 +7198,7 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>3</v>
@@ -7207,16 +7207,16 @@
         <v>3</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7236,16 +7236,16 @@
         <v>3</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>13</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>22.33</v>
+        <v>23.33</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7256,25 +7256,25 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E221" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G221" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>20</v>
+        <v>6.67</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7285,7 +7285,7 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>3</v>
@@ -7294,16 +7294,16 @@
         <v>3</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>4</v>
+        <v>6.67</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7323,16 +7323,16 @@
         <v>3</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>5.33</v>
+        <v>21.33</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7343,25 +7343,25 @@
         <v>240</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D224" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E224" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>18</v>
+        <v>21.5</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7381,16 +7381,16 @@
         <v>2</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>520</v>
+        <v>8</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>260</v>
+        <v>4</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7407,19 +7407,19 @@
         <v>2</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>1</v>
+        <v>698</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>0.5</v>
+        <v>349</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7430,25 +7430,25 @@
         <v>243</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G227" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
@@ -7459,7 +7459,7 @@
         <v>244</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>2</v>
@@ -7468,16 +7468,16 @@
         <v>2</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="G228" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>20.5</v>
+        <v>4</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7488,7 +7488,7 @@
         <v>245</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>2</v>
@@ -7497,16 +7497,16 @@
         <v>2</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
@@ -7526,16 +7526,16 @@
         <v>1</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>2</v>
+        <v>695</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>2</v>
+        <v>695</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
@@ -7555,16 +7555,16 @@
         <v>1</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
@@ -7575,7 +7575,7 @@
         <v>248</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>1</v>
@@ -7593,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="233">
@@ -7604,7 +7604,7 @@
         <v>249</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>1</v>
@@ -7622,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="I233" s="0" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
